--- a/Grading for Sprint 1.xlsx
+++ b/Grading for Sprint 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohan\Dropbox\MSU\fall 20\SE_lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3A9F93-6FC3-422C-B314-60D03393D69D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C71A48E-F0ED-4BAB-AA3C-7E4DC3EEEA90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="975" windowWidth="25215" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -731,19 +731,19 @@
   </sheetPr>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.71875" customWidth="1"/>
-    <col min="3" max="3" width="123.44140625" customWidth="1"/>
-    <col min="4" max="4" width="57.5546875" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="123.42578125" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>23</v>
@@ -753,18 +753,18 @@
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -772,7 +772,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -782,7 +782,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" ht="46.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="46.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -791,7 +791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -801,7 +801,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" ht="81.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="81.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -809,7 +809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -817,12 +817,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -831,7 +831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -840,7 +840,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="48.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -849,7 +849,7 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -857,12 +857,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -870,59 +870,59 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
     </row>
-    <row r="20" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
     </row>
-    <row r="25" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
     </row>
-    <row r="29" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
     </row>
-    <row r="35" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
     </row>
   </sheetData>
